--- a/data/trans_bre/P1423-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.012581037237744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.596233694468241</v>
+        <v>3.596233694468244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.761551122188603</v>
@@ -649,7 +649,7 @@
         <v>3.319961427031081</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4738484707035607</v>
+        <v>0.4738484707035611</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.200126977560197</v>
+        <v>2.040457354785715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.412053761269261</v>
+        <v>6.591737639064421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.33667291928302</v>
+        <v>6.276423206608037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.080512860678222</v>
+        <v>0.5381198162128333</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6408977943406435</v>
+        <v>0.5939365159036646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.313629863951624</v>
+        <v>1.317845942516947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.67910222077025</v>
+        <v>1.575186236133534</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1036249074554509</v>
+        <v>0.05627692123921878</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.486662906325</v>
+        <v>6.234690712098931</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.3839532078565</v>
+        <v>12.54430253279742</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.82033018264841</v>
+        <v>12.14066345335924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.375667564770455</v>
+        <v>6.110397921343274</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.216322904170701</v>
+        <v>3.839973430592377</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.894041593982631</v>
+        <v>4.599812346923725</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6.770526224328587</v>
+        <v>6.534726808387883</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.064945519923671</v>
+        <v>0.9868153490038997</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.883503173818401</v>
+        <v>2.765243241172751</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.249820235184599</v>
+        <v>3.950146371932226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.956252957836286</v>
+        <v>4.993156207191605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.426160986422642</v>
+        <v>4.428091943551099</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6760862003504183</v>
+        <v>0.7304088443074142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7178499701357162</v>
+        <v>0.6610703996246178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.726124129341745</v>
+        <v>1.740800936998728</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7556219126132245</v>
+        <v>0.7551433099458559</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.888362138675906</v>
+        <v>6.927493604280953</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.023934507439948</v>
+        <v>8.971469688289783</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.061013322114635</v>
+        <v>9.286318392899251</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.66067070008223</v>
+        <v>8.844400527850651</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.08475895323312</v>
+        <v>3.345851942986414</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.415429821140281</v>
+        <v>2.350979427091554</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.855122339889494</v>
+        <v>6.217344510501484</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.361899990643772</v>
+        <v>2.471536727265294</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.552649139969017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.160840001979558</v>
+        <v>8.16084000197956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.253076117799224</v>
@@ -849,7 +849,7 @@
         <v>1.519477553031155</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.460530387376005</v>
+        <v>1.460530387376006</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.943765443610914</v>
+        <v>2.02042507149608</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.14716084470154</v>
+        <v>4.105041856486351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.962963621915789</v>
+        <v>3.159552340116521</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.034022681862172</v>
+        <v>5.37693138131921</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4237006619431311</v>
+        <v>0.3722327097250455</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8403235397687741</v>
+        <v>0.753695755366825</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5920655033468725</v>
+        <v>0.6344953678134018</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.667121734500798</v>
+        <v>0.7653561190142796</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.95552664590359</v>
+        <v>6.920439277336079</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.659095674429187</v>
+        <v>9.878288216098555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.325367591095597</v>
+        <v>8.116509959809742</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.02992209837445</v>
+        <v>11.17260059470494</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.697020281530666</v>
+        <v>2.578389936552076</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.994831155330132</v>
+        <v>4.23606330008887</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.231248392304487</v>
+        <v>2.975288440489942</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.618375004674277</v>
+        <v>2.624202263765891</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.542748446174755</v>
+        <v>2.349865126219314</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.247503029975491</v>
+        <v>4.439256926396639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.353358700804769</v>
+        <v>4.307838772438602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.392848620123358</v>
+        <v>3.28966981722934</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5656469329521886</v>
+        <v>0.5360356268084447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7357422419066196</v>
+        <v>0.7360845632884606</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7610238224388415</v>
+        <v>0.7520974479804624</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4337110744555259</v>
+        <v>0.389705209397005</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.578414491496845</v>
+        <v>6.486493343739724</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.066108666376389</v>
+        <v>9.193198674054798</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.114564915887756</v>
+        <v>9.084060336237558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.214688324710334</v>
+        <v>8.151276081728961</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.480878404943397</v>
+        <v>2.420495076746922</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.495219102060458</v>
+        <v>2.517417724701571</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.504244397135309</v>
+        <v>2.599913469634149</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.450670170312943</v>
+        <v>1.44824277744412</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.932724168556037</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.132113440257629</v>
+        <v>6.132113440257628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.459322715576148</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.423897257326848</v>
+        <v>3.444662043215715</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.967217358922662</v>
+        <v>5.996568367869386</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.693724106743689</v>
+        <v>5.71028714408346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.910026031424239</v>
+        <v>4.874047647275241</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9453529759130482</v>
+        <v>0.926760299679533</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.254886956591919</v>
+        <v>1.260581245896257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.497282484353562</v>
+        <v>1.493516220809978</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7297207013674261</v>
+        <v>0.7069497115613291</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.613731949516527</v>
+        <v>5.650467788534503</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.619900124491782</v>
+        <v>8.625514379020448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.155946505489197</v>
+        <v>8.311237607759782</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.315831946113138</v>
+        <v>7.433815002297614</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.071105244030165</v>
+        <v>2.066848058208211</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.338577183958378</v>
+        <v>2.355582882126471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.907520221978318</v>
+        <v>2.942916576435255</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.346211538444257</v>
+        <v>1.372439730399338</v>
       </c>
     </row>
     <row r="19">
